--- a/dataset/padi-sumut_update.xlsx
+++ b/dataset/padi-sumut_update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mikroskilacid-my.sharepoint.com/personal/202111669_students_mikroskil_ac_id/Documents/Data Science Research/cropsresearch2023/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{796F5658-2B9B-405F-994E-6EBD033F4C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CBB9B6D-4310-4871-B35C-1D751F17FAD7}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{796F5658-2B9B-405F-994E-6EBD033F4C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B728EA1B-EAB6-404C-9E88-69B8E6E4DC5E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D6BE8391-3084-47C6-851A-4C76CF0F5B0A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="42">
   <si>
     <t>Tahun</t>
   </si>
@@ -309,6 +309,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,11 +612,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379C651-0D51-42B8-B708-8BDD33EB4CDD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E446" sqref="E446"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E401" sqref="E401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2010</v>
       </c>
@@ -658,7 +663,7 @@
         <v>17087</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2010</v>
       </c>
@@ -675,7 +680,7 @@
         <v>34224</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2010</v>
       </c>
@@ -692,7 +697,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2010</v>
       </c>
@@ -709,7 +714,7 @@
         <v>23567</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2010</v>
       </c>
@@ -726,7 +731,7 @@
         <v>84875</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2010</v>
       </c>
@@ -743,7 +748,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2010</v>
       </c>
@@ -760,7 +765,7 @@
         <v>19307</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2010</v>
       </c>
@@ -777,7 +782,7 @@
         <v>23203</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2010</v>
       </c>
@@ -794,7 +799,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2010</v>
       </c>
@@ -811,7 +816,7 @@
         <v>23065</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2010</v>
       </c>
@@ -828,7 +833,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2010</v>
       </c>
@@ -845,7 +850,7 @@
         <v>67559</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2010</v>
       </c>
@@ -862,7 +867,7 @@
         <v>36773</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2010</v>
       </c>
@@ -879,7 +884,7 @@
         <v>4056</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2010</v>
       </c>
@@ -896,7 +901,7 @@
         <v>8890</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2010</v>
       </c>
@@ -913,7 +918,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2010</v>
       </c>
@@ -930,7 +935,7 @@
         <v>17146</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2010</v>
       </c>
@@ -947,7 +952,7 @@
         <v>6311</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2010</v>
       </c>
@@ -964,7 +969,7 @@
         <v>15942</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2010</v>
       </c>
@@ -981,7 +986,7 @@
         <v>17563</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2010</v>
       </c>
@@ -998,7 +1003,7 @@
         <v>8559</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2010</v>
       </c>
@@ -1015,7 +1020,7 @@
         <v>5669</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2010</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2010</v>
       </c>
@@ -1049,7 +1054,7 @@
         <v>7685</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2010</v>
       </c>
@@ -1073,17 +1078,17 @@
       <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="15">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2010</v>
       </c>
@@ -1100,7 +1105,7 @@
         <v>93343</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2010</v>
       </c>
@@ -1117,7 +1122,7 @@
         <v>754674</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2010</v>
       </c>
@@ -1134,7 +1139,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>2010</v>
       </c>
@@ -1151,7 +1156,7 @@
         <v>29398</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>2010</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>30039</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2010</v>
       </c>
@@ -1185,7 +1190,7 @@
         <v>27030</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2010</v>
       </c>
@@ -1202,7 +1207,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2010</v>
       </c>
@@ -1219,7 +1224,7 @@
         <v>22353</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2011</v>
       </c>
@@ -1236,7 +1241,7 @@
         <v>18439</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2011</v>
       </c>
@@ -1253,7 +1258,7 @@
         <v>34385</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>2011</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2011</v>
       </c>
@@ -1287,7 +1292,7 @@
         <v>19006</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2011</v>
       </c>
@@ -1304,7 +1309,7 @@
         <v>85210</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>2011</v>
       </c>
@@ -1321,7 +1326,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2011</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>19749</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2011</v>
       </c>
@@ -1355,7 +1360,7 @@
         <v>23108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>2011</v>
       </c>
@@ -1372,7 +1377,7 @@
         <v>37473</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>2011</v>
       </c>
@@ -1389,7 +1394,7 @@
         <v>25159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>2011</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2011</v>
       </c>
@@ -1423,7 +1428,7 @@
         <v>73752</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2011</v>
       </c>
@@ -1440,7 +1445,7 @@
         <v>35893</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>2011</v>
       </c>
@@ -1457,7 +1462,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>2011</v>
       </c>
@@ -1474,7 +1479,7 @@
         <v>14008</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>2011</v>
       </c>
@@ -1491,7 +1496,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>2011</v>
       </c>
@@ -1508,7 +1513,7 @@
         <v>22349</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>2011</v>
       </c>
@@ -1525,7 +1530,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>2011</v>
       </c>
@@ -1542,7 +1547,7 @@
         <v>17924</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>2011</v>
       </c>
@@ -1559,7 +1564,7 @@
         <v>15187</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>2011</v>
       </c>
@@ -1576,7 +1581,7 @@
         <v>8833</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>2011</v>
       </c>
@@ -1593,7 +1598,7 @@
         <v>7596</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>2011</v>
       </c>
@@ -1610,7 +1615,7 @@
         <v>4309</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>2011</v>
       </c>
@@ -1627,7 +1632,7 @@
         <v>8866</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>2011</v>
       </c>
@@ -1651,17 +1656,17 @@
       <c r="B61" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="15">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>2011</v>
       </c>
@@ -1678,7 +1683,7 @@
         <v>96200</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>2011</v>
       </c>
@@ -1695,7 +1700,7 @@
         <v>757547</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>2011</v>
       </c>
@@ -1712,7 +1717,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>2011</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>32540</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>2011</v>
       </c>
@@ -1746,7 +1751,7 @@
         <v>27881</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>2011</v>
       </c>
@@ -1763,7 +1768,7 @@
         <v>23748</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>2011</v>
       </c>
@@ -1780,7 +1785,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>2011</v>
       </c>
@@ -1797,7 +1802,7 @@
         <v>21569</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>2012</v>
       </c>
@@ -1814,7 +1819,7 @@
         <v>18281</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>2012</v>
       </c>
@@ -1831,7 +1836,7 @@
         <v>36595</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>2012</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>2012</v>
       </c>
@@ -1865,7 +1870,7 @@
         <v>20508</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>2012</v>
       </c>
@@ -1882,7 +1887,7 @@
         <v>80788</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>2012</v>
       </c>
@@ -1899,7 +1904,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>2012</v>
       </c>
@@ -1916,7 +1921,7 @@
         <v>19454</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>2012</v>
       </c>
@@ -1933,7 +1938,7 @@
         <v>25977</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>2012</v>
       </c>
@@ -1950,7 +1955,7 @@
         <v>37920</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>2012</v>
       </c>
@@ -1967,7 +1972,7 @@
         <v>24524</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>2012</v>
       </c>
@@ -1984,7 +1989,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>2012</v>
       </c>
@@ -2001,7 +2006,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>2012</v>
       </c>
@@ -2018,7 +2023,7 @@
         <v>38064</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>2012</v>
       </c>
@@ -2035,7 +2040,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>2012</v>
       </c>
@@ -2052,7 +2057,7 @@
         <v>9449</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>2012</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>2012</v>
       </c>
@@ -2086,7 +2091,7 @@
         <v>17013</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>2012</v>
       </c>
@@ -2103,7 +2108,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>2012</v>
       </c>
@@ -2120,7 +2125,7 @@
         <v>17172</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>2012</v>
       </c>
@@ -2137,7 +2142,7 @@
         <v>20393</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>2012</v>
       </c>
@@ -2154,7 +2159,7 @@
         <v>11496</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>2012</v>
       </c>
@@ -2171,7 +2176,7 @@
         <v>6902</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>2012</v>
       </c>
@@ -2188,7 +2193,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>2012</v>
       </c>
@@ -2205,7 +2210,7 @@
         <v>8891</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>2012</v>
       </c>
@@ -2229,17 +2234,17 @@
       <c r="B95" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C95" s="6">
-        <v>0</v>
-      </c>
-      <c r="D95" s="6">
-        <v>0</v>
-      </c>
-      <c r="E95" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C95" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>2012</v>
       </c>
@@ -2256,7 +2261,7 @@
         <v>89806</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>2012</v>
       </c>
@@ -2273,7 +2278,7 @@
         <v>765099</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>2012</v>
       </c>
@@ -2290,7 +2295,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>2012</v>
       </c>
@@ -2307,7 +2312,7 @@
         <v>31458</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>2012</v>
       </c>
@@ -2324,7 +2329,7 @@
         <v>29339</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>2012</v>
       </c>
@@ -2341,7 +2346,7 @@
         <v>27118</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>2012</v>
       </c>
@@ -2358,7 +2363,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>2012</v>
       </c>
@@ -2375,7 +2380,7 @@
         <v>22237</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>2013</v>
       </c>
@@ -2392,7 +2397,7 @@
         <v>18718</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>2013</v>
       </c>
@@ -2409,7 +2414,7 @@
         <v>34926</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>2013</v>
       </c>
@@ -2426,7 +2431,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>2013</v>
       </c>
@@ -2443,7 +2448,7 @@
         <v>18877</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>2013</v>
       </c>
@@ -2460,7 +2465,7 @@
         <v>80104</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>2013</v>
       </c>
@@ -2477,7 +2482,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>2013</v>
       </c>
@@ -2494,7 +2499,7 @@
         <v>19002</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>2013</v>
       </c>
@@ -2511,7 +2516,7 @@
         <v>24068</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>2013</v>
       </c>
@@ -2528,7 +2533,7 @@
         <v>20677</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>2013</v>
       </c>
@@ -2545,7 +2550,7 @@
         <v>27856</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>2013</v>
       </c>
@@ -2562,7 +2567,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>2013</v>
       </c>
@@ -2579,7 +2584,7 @@
         <v>80899</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>2013</v>
       </c>
@@ -2596,7 +2601,7 @@
         <v>38401</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>2013</v>
       </c>
@@ -2613,7 +2618,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>2013</v>
       </c>
@@ -2630,7 +2635,7 @@
         <v>6573</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>2013</v>
       </c>
@@ -2647,7 +2652,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>2013</v>
       </c>
@@ -2664,7 +2669,7 @@
         <v>24462</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>2013</v>
       </c>
@@ -2681,7 +2686,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>2013</v>
       </c>
@@ -2698,7 +2703,7 @@
         <v>14573</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2013</v>
       </c>
@@ -2715,7 +2720,7 @@
         <v>18327</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>2013</v>
       </c>
@@ -2732,7 +2737,7 @@
         <v>10753</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>2013</v>
       </c>
@@ -2749,7 +2754,7 @@
         <v>4978</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>2013</v>
       </c>
@@ -2766,7 +2771,7 @@
         <v>3615</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>2013</v>
       </c>
@@ -2783,7 +2788,7 @@
         <v>8305</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>2013</v>
       </c>
@@ -2807,17 +2812,17 @@
       <c r="B129" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C129" s="6">
-        <v>0</v>
-      </c>
-      <c r="D129" s="6">
-        <v>0</v>
-      </c>
-      <c r="E129" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C129" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>2013</v>
       </c>
@@ -2834,7 +2839,7 @@
         <v>87504</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>2013</v>
       </c>
@@ -2851,7 +2856,7 @@
         <v>742968</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>2013</v>
       </c>
@@ -2868,7 +2873,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>2013</v>
       </c>
@@ -2885,7 +2890,7 @@
         <v>31693</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>2013</v>
       </c>
@@ -2902,7 +2907,7 @@
         <v>29344</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>2013</v>
       </c>
@@ -2919,7 +2924,7 @@
         <v>26338</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>2013</v>
       </c>
@@ -2936,7 +2941,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>2013</v>
       </c>
@@ -2953,7 +2958,7 @@
         <v>24260</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>2014</v>
       </c>
@@ -2970,7 +2975,7 @@
         <v>18739</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>2014</v>
       </c>
@@ -2987,7 +2992,7 @@
         <v>34118</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>2014</v>
       </c>
@@ -3004,7 +3009,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>2014</v>
       </c>
@@ -3021,7 +3026,7 @@
         <v>18021</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>2014</v>
       </c>
@@ -3038,7 +3043,7 @@
         <v>74926</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>2014</v>
       </c>
@@ -3055,7 +3060,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>2014</v>
       </c>
@@ -3072,7 +3077,7 @@
         <v>18767</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>2014</v>
       </c>
@@ -3089,7 +3094,7 @@
         <v>22904</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>2014</v>
       </c>
@@ -3106,7 +3111,7 @@
         <v>21770</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>2014</v>
       </c>
@@ -3123,7 +3128,7 @@
         <v>23737</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>2014</v>
       </c>
@@ -3140,7 +3145,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>2014</v>
       </c>
@@ -3157,7 +3162,7 @@
         <v>65995</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>2014</v>
       </c>
@@ -3174,7 +3179,7 @@
         <v>38794</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>2014</v>
       </c>
@@ -3191,7 +3196,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>2014</v>
       </c>
@@ -3208,7 +3213,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>2014</v>
       </c>
@@ -3225,7 +3230,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>2014</v>
       </c>
@@ -3242,7 +3247,7 @@
         <v>19089</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>2014</v>
       </c>
@@ -3259,7 +3264,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>2014</v>
       </c>
@@ -3276,7 +3281,7 @@
         <v>13577</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>2014</v>
       </c>
@@ -3293,7 +3298,7 @@
         <v>21170</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>2014</v>
       </c>
@@ -3310,7 +3315,7 @@
         <v>9620</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>2014</v>
       </c>
@@ -3327,7 +3332,7 @@
         <v>4838</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>2014</v>
       </c>
@@ -3344,7 +3349,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>2014</v>
       </c>
@@ -3361,7 +3366,7 @@
         <v>8556</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>2014</v>
       </c>
@@ -3385,17 +3390,17 @@
       <c r="B163" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C163" s="6">
-        <v>0</v>
-      </c>
-      <c r="D163" s="6">
-        <v>0</v>
-      </c>
-      <c r="E163" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C163" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>2014</v>
       </c>
@@ -3412,7 +3417,7 @@
         <v>103338</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>2014</v>
       </c>
@@ -3429,7 +3434,7 @@
         <v>717318</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>2014</v>
       </c>
@@ -3446,7 +3451,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>2014</v>
       </c>
@@ -3463,7 +3468,7 @@
         <v>33599</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>2014</v>
       </c>
@@ -3480,7 +3485,7 @@
         <v>27492</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>2014</v>
       </c>
@@ -3497,7 +3502,7 @@
         <v>25923</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>2014</v>
       </c>
@@ -3514,7 +3519,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>2014</v>
       </c>
@@ -3531,7 +3536,7 @@
         <v>23380</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>2015</v>
       </c>
@@ -3548,7 +3553,7 @@
         <v>18755</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>2015</v>
       </c>
@@ -3565,7 +3570,7 @@
         <v>35760</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>2015</v>
       </c>
@@ -3582,7 +3587,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>2015</v>
       </c>
@@ -3599,7 +3604,7 @@
         <v>22323</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>2015</v>
       </c>
@@ -3616,7 +3621,7 @@
         <v>75606</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>2015</v>
       </c>
@@ -3633,7 +3638,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>2015</v>
       </c>
@@ -3650,7 +3655,7 @@
         <v>18409</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>2015</v>
       </c>
@@ -3667,7 +3672,7 @@
         <v>24190</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>2015</v>
       </c>
@@ -3684,7 +3689,7 @@
         <v>24067</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>2015</v>
       </c>
@@ -3701,7 +3706,7 @@
         <v>24415</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>2015</v>
       </c>
@@ -3718,7 +3723,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>2015</v>
       </c>
@@ -3735,7 +3740,7 @@
         <v>79640</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>2015</v>
       </c>
@@ -3752,7 +3757,7 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>2015</v>
       </c>
@@ -3769,7 +3774,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>2015</v>
       </c>
@@ -3786,7 +3791,7 @@
         <v>8833</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>2015</v>
       </c>
@@ -3803,7 +3808,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>2015</v>
       </c>
@@ -3820,7 +3825,7 @@
         <v>28127</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>2015</v>
       </c>
@@ -3837,7 +3842,7 @@
         <v>3594</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>2015</v>
       </c>
@@ -3854,7 +3859,7 @@
         <v>14617</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>2015</v>
       </c>
@@ -3871,7 +3876,7 @@
         <v>26685</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>2015</v>
       </c>
@@ -3888,7 +3893,7 @@
         <v>10584</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>2015</v>
       </c>
@@ -3905,7 +3910,7 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>2015</v>
       </c>
@@ -3922,7 +3927,7 @@
         <v>4436</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>2015</v>
       </c>
@@ -3939,7 +3944,7 @@
         <v>8602</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>2015</v>
       </c>
@@ -3963,17 +3968,17 @@
       <c r="B197" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C197" s="6">
-        <v>0</v>
-      </c>
-      <c r="D197" s="6">
-        <v>0</v>
-      </c>
-      <c r="E197" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C197" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>2015</v>
       </c>
@@ -3990,7 +3995,7 @@
         <v>106785</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>2015</v>
       </c>
@@ -4007,7 +4012,7 @@
         <v>781769</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>2015</v>
       </c>
@@ -4024,7 +4029,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>2015</v>
       </c>
@@ -4041,7 +4046,7 @@
         <v>34633</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>2015</v>
       </c>
@@ -4058,7 +4063,7 @@
         <v>32396</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>2015</v>
       </c>
@@ -4075,7 +4080,7 @@
         <v>27011</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>2015</v>
       </c>
@@ -4092,7 +4097,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>2015</v>
       </c>
@@ -4109,7 +4114,7 @@
         <v>21496</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>2016</v>
       </c>
@@ -4126,7 +4131,7 @@
         <v>18811.7</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>2016</v>
       </c>
@@ -4143,7 +4148,7 @@
         <v>32054.799999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2016</v>
       </c>
@@ -4160,7 +4165,7 @@
         <v>3476.6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>2016</v>
       </c>
@@ -4177,7 +4182,7 @@
         <v>23578</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2016</v>
       </c>
@@ -4194,7 +4199,7 @@
         <v>82343.5</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>2016</v>
       </c>
@@ -4211,7 +4216,7 @@
         <v>3537.8</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>2016</v>
       </c>
@@ -4228,7 +4233,7 @@
         <v>19892.900000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2016</v>
       </c>
@@ -4245,7 +4250,7 @@
         <v>26753.9</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>2016</v>
       </c>
@@ -4262,7 +4267,7 @@
         <v>44081.7</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>2016</v>
       </c>
@@ -4279,7 +4284,7 @@
         <v>31883.3</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>2016</v>
       </c>
@@ -4296,7 +4301,7 @@
         <v>1329.3</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>2016</v>
       </c>
@@ -4313,7 +4318,7 @@
         <v>79696.899999999994</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>2016</v>
       </c>
@@ -4330,7 +4335,7 @@
         <v>52806.3</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>2016</v>
       </c>
@@ -4347,7 +4352,7 @@
         <v>2685.6</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>2016</v>
       </c>
@@ -4364,7 +4369,7 @@
         <v>10331.4</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>2016</v>
       </c>
@@ -4381,7 +4386,7 @@
         <v>4051.6</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>2016</v>
       </c>
@@ -4398,7 +4403,7 @@
         <v>30405.8</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>2016</v>
       </c>
@@ -4415,7 +4420,7 @@
         <v>6732.3</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>2016</v>
       </c>
@@ -4432,7 +4437,7 @@
         <v>17416.2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>2016</v>
       </c>
@@ -4449,7 +4454,7 @@
         <v>44065.3</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>2016</v>
       </c>
@@ -4466,7 +4471,7 @@
         <v>11632.5</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>2016</v>
       </c>
@@ -4483,7 +4488,7 @@
         <v>4876.5</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>2016</v>
       </c>
@@ -4500,7 +4505,7 @@
         <v>3894.8</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>2016</v>
       </c>
@@ -4517,7 +4522,7 @@
         <v>8230.7999999999993</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>2016</v>
       </c>
@@ -4551,7 +4556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>2016</v>
       </c>
@@ -4568,7 +4573,7 @@
         <v>112658.8</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>2016</v>
       </c>
@@ -4585,7 +4590,7 @@
         <v>885575.9</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>2016</v>
       </c>
@@ -4602,7 +4607,7 @@
         <v>173.3</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>2016</v>
       </c>
@@ -4619,7 +4624,7 @@
         <v>36643</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>2016</v>
       </c>
@@ -4636,7 +4641,7 @@
         <v>35292.1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>2016</v>
       </c>
@@ -4653,7 +4658,7 @@
         <v>36481.1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>2016</v>
       </c>
@@ -4670,7 +4675,7 @@
         <v>645.5</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>2016</v>
       </c>
@@ -4687,7 +4692,7 @@
         <v>23494.1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>2017</v>
       </c>
@@ -4704,7 +4709,7 @@
         <v>20427</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>2017</v>
       </c>
@@ -4721,7 +4726,7 @@
         <v>46681</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>2017</v>
       </c>
@@ -4738,7 +4743,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>2017</v>
       </c>
@@ -4755,7 +4760,7 @@
         <v>27430</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>2017</v>
       </c>
@@ -4772,7 +4777,7 @@
         <v>89555</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>2017</v>
       </c>
@@ -4789,7 +4794,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>2017</v>
       </c>
@@ -4806,7 +4811,7 @@
         <v>22349</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>2017</v>
       </c>
@@ -4823,7 +4828,7 @@
         <v>28700</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>2017</v>
       </c>
@@ -4840,7 +4845,7 @@
         <v>36547</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>2017</v>
       </c>
@@ -4857,7 +4862,7 @@
         <v>38720</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>2017</v>
       </c>
@@ -4874,7 +4879,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>2017</v>
       </c>
@@ -4891,7 +4896,7 @@
         <v>92767</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>2017</v>
       </c>
@@ -4908,7 +4913,7 @@
         <v>86416</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>2017</v>
       </c>
@@ -4925,7 +4930,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>2017</v>
       </c>
@@ -4942,7 +4947,7 @@
         <v>13323</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>2017</v>
       </c>
@@ -4959,7 +4964,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>2017</v>
       </c>
@@ -4976,7 +4981,7 @@
         <v>33758</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>2017</v>
       </c>
@@ -4993,7 +4998,7 @@
         <v>12667</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>2017</v>
       </c>
@@ -5010,7 +5015,7 @@
         <v>32218</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>2017</v>
       </c>
@@ -5027,7 +5032,7 @@
         <v>51186</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>2017</v>
       </c>
@@ -5044,7 +5049,7 @@
         <v>9096</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>2017</v>
       </c>
@@ -5061,7 +5066,7 @@
         <v>6020</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>2017</v>
       </c>
@@ -5078,7 +5083,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>2017</v>
       </c>
@@ -5095,7 +5100,7 @@
         <v>7662</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>2017</v>
       </c>
@@ -5129,7 +5134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>2017</v>
       </c>
@@ -5146,7 +5151,7 @@
         <v>89138</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>2017</v>
       </c>
@@ -5163,7 +5168,7 @@
         <v>988068</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>2017</v>
       </c>
@@ -5180,7 +5185,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>2017</v>
       </c>
@@ -5197,7 +5202,7 @@
         <v>49217</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>2017</v>
       </c>
@@ -5214,7 +5219,7 @@
         <v>27336</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>2017</v>
       </c>
@@ -5231,7 +5236,7 @@
         <v>37214</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>2017</v>
       </c>
@@ -5248,7 +5253,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>2017</v>
       </c>
@@ -5265,7 +5270,7 @@
         <v>25354</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>2018</v>
       </c>
@@ -5282,7 +5287,7 @@
         <v>9678.49</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>2018</v>
       </c>
@@ -5299,7 +5304,7 @@
         <v>13277.62</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>2018</v>
       </c>
@@ -5316,7 +5321,7 @@
         <v>1479.15</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>2018</v>
       </c>
@@ -5333,7 +5338,7 @@
         <v>5332.96</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>2018</v>
       </c>
@@ -5350,7 +5355,7 @@
         <v>52978.85</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>2018</v>
       </c>
@@ -5367,7 +5372,7 @@
         <v>2498.84</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>2018</v>
       </c>
@@ -5384,7 +5389,7 @@
         <v>14824.54</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>2018</v>
       </c>
@@ -5401,7 +5406,7 @@
         <v>10430.56</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>2018</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>10580.82</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>2018</v>
       </c>
@@ -5435,7 +5440,7 @@
         <v>12366.68</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>2018</v>
       </c>
@@ -5452,7 +5457,7 @@
         <v>119.11</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>2018</v>
       </c>
@@ -5469,7 +5474,7 @@
         <v>26460.959999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>2018</v>
       </c>
@@ -5486,7 +5491,7 @@
         <v>20161.62</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>2018</v>
       </c>
@@ -5503,7 +5508,7 @@
         <v>1113.95</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>2018</v>
       </c>
@@ -5520,7 +5525,7 @@
         <v>9899.33</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>2018</v>
       </c>
@@ -5537,7 +5542,7 @@
         <v>2185.6799999999998</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>2018</v>
       </c>
@@ -5554,7 +5559,7 @@
         <v>11892.78</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>2018</v>
       </c>
@@ -5571,7 +5576,7 @@
         <v>10130.16</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>2018</v>
       </c>
@@ -5588,7 +5593,7 @@
         <v>7048.07</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>2018</v>
       </c>
@@ -5605,7 +5610,7 @@
         <v>5970.76</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>2018</v>
       </c>
@@ -5622,7 +5627,7 @@
         <v>4798.2</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>2018</v>
       </c>
@@ -5639,7 +5644,7 @@
         <v>1378.3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>2018</v>
       </c>
@@ -5656,7 +5661,7 @@
         <v>1524.39</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>2018</v>
       </c>
@@ -5673,7 +5678,7 @@
         <v>8193.68</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>2018</v>
       </c>
@@ -5707,7 +5712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>2018</v>
       </c>
@@ -5724,7 +5729,7 @@
         <v>34172.33</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>2018</v>
       </c>
@@ -5741,7 +5746,7 @@
         <v>408176.45</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>2018</v>
       </c>
@@ -5758,7 +5763,7 @@
         <v>92.76</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>2018</v>
       </c>
@@ -5775,7 +5780,7 @@
         <v>18714.63</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>2018</v>
       </c>
@@ -5792,7 +5797,7 @@
         <v>12794.69</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>2018</v>
       </c>
@@ -5809,7 +5814,7 @@
         <v>26729.07</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>2018</v>
       </c>
@@ -5826,7 +5831,7 @@
         <v>566.83000000000004</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>2018</v>
       </c>
@@ -5843,7 +5848,7 @@
         <v>22196.55</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>2019</v>
       </c>
@@ -5860,7 +5865,7 @@
         <v>9995.57</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>2019</v>
       </c>
@@ -5877,7 +5882,7 @@
         <v>12489.08</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>2019</v>
       </c>
@@ -5894,7 +5899,7 @@
         <v>1489.51</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>2019</v>
       </c>
@@ -5911,7 +5916,7 @@
         <v>5634.52</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>2019</v>
       </c>
@@ -5928,7 +5933,7 @@
         <v>56051.79</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>2019</v>
       </c>
@@ -5945,7 +5950,7 @@
         <v>2313.0300000000002</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>2019</v>
       </c>
@@ -5962,7 +5967,7 @@
         <v>16357.01</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>2019</v>
       </c>
@@ -5979,7 +5984,7 @@
         <v>9235.1200000000008</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>2019</v>
       </c>
@@ -5996,7 +6001,7 @@
         <v>10475.74</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>2019</v>
       </c>
@@ -6013,7 +6018,7 @@
         <v>15194.29</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>2019</v>
       </c>
@@ -6030,7 +6035,7 @@
         <v>68.05</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>2019</v>
       </c>
@@ -6047,7 +6052,7 @@
         <v>27339.29</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>2019</v>
       </c>
@@ -6064,7 +6069,7 @@
         <v>19937.48</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>2019</v>
       </c>
@@ -6081,7 +6086,7 @@
         <v>1184.17</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>2019</v>
       </c>
@@ -6098,7 +6103,7 @@
         <v>9815.0499999999993</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>2019</v>
       </c>
@@ -6115,7 +6120,7 @@
         <v>2305.5100000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>2019</v>
       </c>
@@ -6132,7 +6137,7 @@
         <v>13597.73</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>2019</v>
       </c>
@@ -6149,7 +6154,7 @@
         <v>10950.94</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>2019</v>
       </c>
@@ -6166,7 +6171,7 @@
         <v>7218.01</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>2019</v>
       </c>
@@ -6183,7 +6188,7 @@
         <v>6614.83</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>2019</v>
       </c>
@@ -6200,7 +6205,7 @@
         <v>3863.88</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>2019</v>
       </c>
@@ -6217,7 +6222,7 @@
         <v>1354.81</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>2019</v>
       </c>
@@ -6234,7 +6239,7 @@
         <v>1812.25</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>2019</v>
       </c>
@@ -6251,7 +6256,7 @@
         <v>8976.2199999999993</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>2019</v>
       </c>
@@ -6285,7 +6290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>2019</v>
       </c>
@@ -6302,7 +6307,7 @@
         <v>32101.99</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>2019</v>
       </c>
@@ -6319,7 +6324,7 @@
         <v>413141.24</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>2019</v>
       </c>
@@ -6336,7 +6341,7 @@
         <v>80.459999999999994</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>2019</v>
       </c>
@@ -6353,7 +6358,7 @@
         <v>19723.900000000001</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>2019</v>
       </c>
@@ -6370,7 +6375,7 @@
         <v>13306.9</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>2019</v>
       </c>
@@ -6387,7 +6392,7 @@
         <v>24138.38</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>2019</v>
       </c>
@@ -6404,7 +6409,7 @@
         <v>501.8</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <v>2019</v>
       </c>
@@ -6421,7 +6426,7 @@
         <v>20857.38</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>2020</v>
       </c>
@@ -6438,7 +6443,7 @@
         <v>10737.39</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>2020</v>
       </c>
@@ -6455,7 +6460,7 @@
         <v>12988.09</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>2020</v>
       </c>
@@ -6472,7 +6477,7 @@
         <v>1456.08</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>2020</v>
       </c>
@@ -6489,7 +6494,7 @@
         <v>6546.43</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>2020</v>
       </c>
@@ -6506,7 +6511,7 @@
         <v>49658.5</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>2020</v>
       </c>
@@ -6523,7 +6528,7 @@
         <v>2349.21</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>2020</v>
       </c>
@@ -6540,7 +6545,7 @@
         <v>11968.69</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>2020</v>
       </c>
@@ -6557,7 +6562,7 @@
         <v>8601.24</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>2020</v>
       </c>
@@ -6574,7 +6579,7 @@
         <v>12268.17</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>2020</v>
       </c>
@@ -6591,7 +6596,7 @@
         <v>11594.12</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>2020</v>
       </c>
@@ -6608,7 +6613,7 @@
         <v>164.48</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>2020</v>
       </c>
@@ -6625,7 +6630,7 @@
         <v>27742.99</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>2020</v>
       </c>
@@ -6642,7 +6647,7 @@
         <v>18198.88</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>2020</v>
       </c>
@@ -6659,7 +6664,7 @@
         <v>924.83</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <v>2020</v>
       </c>
@@ -6676,7 +6681,7 @@
         <v>9513.49</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>2020</v>
       </c>
@@ -6693,7 +6698,7 @@
         <v>2691.48</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>2020</v>
       </c>
@@ -6710,7 +6715,7 @@
         <v>10803.5</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>2020</v>
       </c>
@@ -6727,7 +6732,7 @@
         <v>7584.08</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>2020</v>
       </c>
@@ -6744,7 +6749,7 @@
         <v>8374.84</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>2020</v>
       </c>
@@ -6761,7 +6766,7 @@
         <v>8583.94</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>2020</v>
       </c>
@@ -6778,7 +6783,7 @@
         <v>3532.72</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>2020</v>
       </c>
@@ -6795,7 +6800,7 @@
         <v>1064.93</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>2020</v>
       </c>
@@ -6812,7 +6817,7 @@
         <v>2055.44</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>2020</v>
       </c>
@@ -6829,7 +6834,7 @@
         <v>7927.89</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>2020</v>
       </c>
@@ -6853,17 +6858,17 @@
       <c r="B367" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C367" s="6">
-        <v>0</v>
-      </c>
-      <c r="D367" s="6">
-        <v>0</v>
-      </c>
-      <c r="E367" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C367" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E367" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <v>2020</v>
       </c>
@@ -6880,7 +6885,7 @@
         <v>33172.769999999997</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <v>2020</v>
       </c>
@@ -6897,7 +6902,7 @@
         <v>388591.22</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <v>2020</v>
       </c>
@@ -6914,7 +6919,7 @@
         <v>75.45</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <v>2020</v>
       </c>
@@ -6931,7 +6936,7 @@
         <v>17677.650000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>2020</v>
       </c>
@@ -6948,7 +6953,7 @@
         <v>11903.68</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>2020</v>
       </c>
@@ -6965,7 +6970,7 @@
         <v>21508.92</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>2020</v>
       </c>
@@ -6982,7 +6987,7 @@
         <v>484.97</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <v>2020</v>
       </c>
@@ -6999,7 +7004,7 @@
         <v>17574.080000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
         <v>2021</v>
       </c>
@@ -7016,7 +7021,7 @@
         <v>9907</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>2021</v>
       </c>
@@ -7033,7 +7038,7 @@
         <v>12269</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>2021</v>
       </c>
@@ -7050,7 +7055,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
         <v>2021</v>
       </c>
@@ -7067,7 +7072,7 @@
         <v>5895</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <v>2021</v>
       </c>
@@ -7084,7 +7089,7 @@
         <v>53981</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
         <v>2021</v>
       </c>
@@ -7101,7 +7106,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
         <v>2021</v>
       </c>
@@ -7118,7 +7123,7 @@
         <v>11440</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
         <v>2021</v>
       </c>
@@ -7135,7 +7140,7 @@
         <v>9844</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
         <v>2021</v>
       </c>
@@ -7152,7 +7157,7 @@
         <v>9048</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
         <v>2021</v>
       </c>
@@ -7169,7 +7174,7 @@
         <v>12623</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
         <v>2021</v>
       </c>
@@ -7186,7 +7191,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>2021</v>
       </c>
@@ -7203,7 +7208,7 @@
         <v>25633</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
         <v>2021</v>
       </c>
@@ -7220,7 +7225,7 @@
         <v>17159</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>2021</v>
       </c>
@@ -7237,7 +7242,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>2021</v>
       </c>
@@ -7254,7 +7259,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
         <v>2021</v>
       </c>
@@ -7271,7 +7276,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>2021</v>
       </c>
@@ -7288,7 +7293,7 @@
         <v>13492</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
         <v>2021</v>
       </c>
@@ -7305,7 +7310,7 @@
         <v>9691</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>2021</v>
       </c>
@@ -7322,7 +7327,7 @@
         <v>6961</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
         <v>2021</v>
       </c>
@@ -7339,7 +7344,7 @@
         <v>7125</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
         <v>2021</v>
       </c>
@@ -7356,7 +7361,7 @@
         <v>3369</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>2021</v>
       </c>
@@ -7373,7 +7378,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>2021</v>
       </c>
@@ -7390,7 +7395,7 @@
         <v>19551</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
         <v>2021</v>
       </c>
@@ -7407,7 +7412,7 @@
         <v>7875</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
         <v>2021</v>
       </c>
@@ -7437,7 +7442,7 @@
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
         <v>2021</v>
       </c>
@@ -7454,7 +7459,7 @@
         <v>30951</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>2021</v>
       </c>
@@ -7471,7 +7476,7 @@
         <v>385405</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
         <v>2021</v>
       </c>
@@ -7488,7 +7493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
         <v>2021</v>
       </c>
@@ -7505,7 +7510,7 @@
         <v>16698</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
         <v>2021</v>
       </c>
@@ -7522,7 +7527,7 @@
         <v>12366</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>2021</v>
       </c>
@@ -7539,7 +7544,7 @@
         <v>21622</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>2021</v>
       </c>
@@ -7556,7 +7561,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>2021</v>
       </c>
@@ -7573,7 +7578,7 @@
         <v>17687</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>2022</v>
       </c>
@@ -7590,7 +7595,7 @@
         <v>10185.41</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <v>2022</v>
       </c>
@@ -7607,7 +7612,7 @@
         <v>12827.29</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
         <v>2022</v>
       </c>
@@ -7624,7 +7629,7 @@
         <v>1244.9100000000001</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
         <v>2022</v>
       </c>
@@ -7641,7 +7646,7 @@
         <v>7868.1</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
         <v>2022</v>
       </c>
@@ -7658,7 +7663,7 @@
         <v>53984.69</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
         <v>2022</v>
       </c>
@@ -7675,7 +7680,7 @@
         <v>2135.5700000000002</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
         <v>2022</v>
       </c>
@@ -7692,7 +7697,7 @@
         <v>17992.27</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <v>2022</v>
       </c>
@@ -7709,7 +7714,7 @@
         <v>9834.4599999999991</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>2022</v>
       </c>
@@ -7726,7 +7731,7 @@
         <v>19868.189999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>2022</v>
       </c>
@@ -7743,7 +7748,7 @@
         <v>21455.81</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>2022</v>
       </c>
@@ -7760,7 +7765,7 @@
         <v>102.09</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
         <v>2022</v>
       </c>
@@ -7777,7 +7782,7 @@
         <v>23569.18</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
         <v>2022</v>
       </c>
@@ -7794,7 +7799,7 @@
         <v>21293.57</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
         <v>2022</v>
       </c>
@@ -7811,7 +7816,7 @@
         <v>1005.86</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
         <v>2022</v>
       </c>
@@ -7828,7 +7833,7 @@
         <v>8005.34</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
         <v>2022</v>
       </c>
@@ -7845,7 +7850,7 @@
         <v>2514.38</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4">
         <v>2022</v>
       </c>
@@ -7862,7 +7867,7 @@
         <v>12719.32</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
         <v>2022</v>
       </c>
@@ -7879,7 +7884,7 @@
         <v>9613.5300000000007</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
         <v>2022</v>
       </c>
@@ -7896,7 +7901,7 @@
         <v>7377.46</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
         <v>2022</v>
       </c>
@@ -7913,7 +7918,7 @@
         <v>6859.86</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
         <v>2022</v>
       </c>
@@ -7930,7 +7935,7 @@
         <v>3245.98</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
         <v>2022</v>
       </c>
@@ -7947,7 +7952,7 @@
         <v>1516.33</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
         <v>2022</v>
       </c>
@@ -7964,7 +7969,7 @@
         <v>1842.97</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
         <v>2022</v>
       </c>
@@ -7981,7 +7986,7 @@
         <v>7458.05</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
         <v>2022</v>
       </c>
@@ -8011,7 +8016,7 @@
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
         <v>2022</v>
       </c>
@@ -8028,7 +8033,7 @@
         <v>27551.55</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>2022</v>
       </c>
@@ -8045,7 +8050,7 @@
         <v>423522.28</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
         <v>2022</v>
       </c>
@@ -8062,7 +8067,7 @@
         <v>75.930000000000007</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>2022</v>
       </c>
@@ -8079,7 +8084,7 @@
         <v>20801.650000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
         <v>2022</v>
       </c>
@@ -8096,7 +8101,7 @@
         <v>12219.78</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
         <v>2022</v>
       </c>
@@ -8113,7 +8118,7 @@
         <v>29920.67</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
         <v>2022</v>
       </c>
@@ -8130,7 +8135,7 @@
         <v>447.99</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
         <v>2022</v>
       </c>
@@ -8149,6 +8154,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E443" xr:uid="{6379C651-0D51-42B8-B708-8BDD33EB4CDD}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Sibolga"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E443">
       <sortCondition ref="A1:A443"/>
     </sortState>
